--- a/Experiments/Results/experiment_results_basic_sequencial_averages.xlsx
+++ b/Experiments/Results/experiment_results_basic_sequencial_averages.xlsx
@@ -15,104 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Experiment</t>
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-23</t>
   </si>
 </sst>
 </file>
@@ -451,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,188 +375,188 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.064</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.054</v>
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.066</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.056</v>
+        <v>0.084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.055</v>
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>5</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.056</v>
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.065</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>6</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.056</v>
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.065</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>7</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.06</v>
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.081</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>8</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.059</v>
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.082</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>9</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.058</v>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>10</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.062</v>
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>11</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>0.06</v>
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.435</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>0.069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>0.246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>0.102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>0.276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+        <v>1.979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B45">
-        <v>1.525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>6.733</v>
+      <c r="B24">
+        <v>9.793</v>
       </c>
     </row>
   </sheetData>
